--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2075.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2075.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.155932364000774</v>
+        <v>1.231987118721008</v>
       </c>
       <c r="B1">
-        <v>3.300141652650796</v>
+        <v>3.817236423492432</v>
       </c>
       <c r="C1">
-        <v>3.942375903505177</v>
+        <v>3.51042628288269</v>
       </c>
       <c r="D1">
-        <v>3.462518230868322</v>
+        <v>3.622545003890991</v>
       </c>
       <c r="E1">
-        <v>1.191914120571345</v>
+        <v>1.115609407424927</v>
       </c>
     </row>
   </sheetData>
